--- a/sizes.xlsx
+++ b/sizes.xlsx
@@ -366,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="V38" workbookViewId="0">
+      <selection activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:36">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +435,44 @@
       <c r="U1">
         <v>19</v>
       </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <v>28</v>
+      </c>
+      <c r="AE1">
+        <v>29</v>
+      </c>
+      <c r="AF1">
+        <v>30</v>
+      </c>
+      <c r="AG1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:36">
       <c r="A2">
         <v>2</v>
       </c>
@@ -449,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:U17" si="0">IF($A2&lt;2*E$1,0,COMBIN($A2,E$1*2))*FACTDOUBLE(E$1*2-1)</f>
+        <f t="shared" ref="E2:W17" si="0">IF($A2&lt;2*E$1,0,COMBIN($A2,E$1*2))*FACTDOUBLE(E$1*2-1)</f>
         <v>0</v>
       </c>
       <c r="F2">
@@ -517,19 +553,67 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <f>SUM(C2:U2)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:AG17" si="1">IF($A2&lt;2*X$1,0,COMBIN($A2,X$1*2))*FACTDOUBLE(X$1*2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f>SUM(C2:AG2)</f>
         <v>1</v>
       </c>
-      <c r="W2">
-        <f t="shared" ref="W2:W38" si="1">2^A2</f>
+      <c r="AI2">
+        <f>4^A2</f>
+        <v>16</v>
+      </c>
+      <c r="AJ2">
+        <f>2^A2</f>
         <v>4</v>
       </c>
-      <c r="X2">
-        <f t="shared" ref="X2:X38" si="2">4^A2</f>
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:36">
       <c r="A3">
         <v>3</v>
       </c>
@@ -541,67 +625,67 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:S22" si="3">IF($A3&lt;2*D$1,0,COMBIN($A3,D$1*2))*FACTDOUBLE(D$1*2-1)</f>
+        <f t="shared" ref="D3:S22" si="2">IF($A3&lt;2*D$1,0,COMBIN($A3,D$1*2))*FACTDOUBLE(D$1*2-1)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T3">
@@ -613,19 +697,67 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V38" si="4">SUM(C3:U3)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH60" si="3">SUM(C3:AG3)</f>
         <v>3</v>
       </c>
-      <c r="W3">
-        <f t="shared" si="1"/>
+      <c r="AI3">
+        <f>4^A3</f>
+        <v>64</v>
+      </c>
+      <c r="AJ3">
+        <f>2^A3</f>
         <v>8</v>
       </c>
-      <c r="X3">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:36">
       <c r="A4">
         <v>4</v>
       </c>
@@ -634,205 +766,301 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C3:C22" si="5">COMBIN($A4,C$1*2)*FACTDOUBLE(C$1*2-1)</f>
+        <f t="shared" ref="C4:C22" si="4">COMBIN($A4,C$1*2)*FACTDOUBLE(C$1*2-1)</f>
         <v>6</v>
       </c>
       <c r="D4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W4">
-        <f t="shared" si="1"/>
+      <c r="AI4">
+        <f>4^A4</f>
+        <v>256</v>
+      </c>
+      <c r="AJ4">
+        <f>2^A4</f>
         <v>16</v>
       </c>
-      <c r="X4">
-        <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:36">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B38" si="6">COMBIN(A5, 3)</f>
+        <f t="shared" ref="B5:B38" si="5">COMBIN(A5, 3)</f>
         <v>10</v>
       </c>
       <c r="C5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH5">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="W5">
-        <f t="shared" si="1"/>
+      <c r="AI5">
+        <f>4^A5</f>
+        <v>1024</v>
+      </c>
+      <c r="AJ5">
+        <f>2^A5</f>
         <v>32</v>
       </c>
-      <c r="X5">
-        <f t="shared" si="2"/>
-        <v>1024</v>
-      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:36">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="C6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="E6">
@@ -840,391 +1068,583 @@
         <v>15</v>
       </c>
       <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="W6">
-        <f t="shared" si="1"/>
+      <c r="AI6">
+        <f>4^A6</f>
+        <v>4096</v>
+      </c>
+      <c r="AJ6">
+        <f>2^A6</f>
         <v>64</v>
       </c>
-      <c r="X6">
-        <f t="shared" si="2"/>
-        <v>4096</v>
-      </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:36">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="C7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="4"/>
         <v>231</v>
       </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
+      <c r="AI7">
+        <f>4^A7</f>
+        <v>16384</v>
+      </c>
+      <c r="AJ7">
+        <f>2^A7</f>
         <v>128</v>
       </c>
-      <c r="X7">
-        <f t="shared" si="2"/>
-        <v>16384</v>
-      </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:36">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="C8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="D8">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <f t="shared" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>420</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="4"/>
         <v>763</v>
       </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
+      <c r="AI8">
+        <f>4^A8</f>
+        <v>65536</v>
+      </c>
+      <c r="AJ8">
+        <f>2^A8</f>
         <v>256</v>
       </c>
-      <c r="X8">
-        <f t="shared" si="2"/>
-        <v>65536</v>
-      </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:36">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>83.999999999999986</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D9">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>1259.9999999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>945</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <f t="shared" si="3"/>
-        <v>378</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>1259.9999999999998</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>945</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="4"/>
         <v>2619</v>
       </c>
-      <c r="W9">
-        <f t="shared" si="1"/>
+      <c r="AI9">
+        <f>4^A9</f>
+        <v>262144</v>
+      </c>
+      <c r="AJ9">
+        <f>2^A9</f>
         <v>512</v>
       </c>
-      <c r="X9">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:36">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="C10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>629.99999999999989</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3149.9999999999995</v>
       </c>
       <c r="F10">
@@ -1232,1256 +1652,1880 @@
         <v>4725</v>
       </c>
       <c r="G10">
+        <f t="shared" si="2"/>
+        <v>945</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH10">
         <f t="shared" si="3"/>
-        <v>945</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="4"/>
         <v>9495</v>
       </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
+      <c r="AI10">
+        <f>4^A10</f>
+        <v>1048576</v>
+      </c>
+      <c r="AJ10">
+        <f>2^A10</f>
         <v>1024</v>
       </c>
-      <c r="X10">
-        <f t="shared" si="2"/>
-        <v>1048576</v>
-      </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:36">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>6929.9999999999991</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>17325</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>10395</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH11">
         <f t="shared" si="3"/>
-        <v>990</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>6929.9999999999991</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>17325</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>10395</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="4"/>
         <v>35695</v>
       </c>
-      <c r="W11">
-        <f t="shared" si="1"/>
+      <c r="AI11">
+        <f>4^A11</f>
+        <v>4194304</v>
+      </c>
+      <c r="AJ11">
+        <f>2^A11</f>
         <v>2048</v>
       </c>
-      <c r="X11">
-        <f t="shared" si="2"/>
-        <v>4194304</v>
-      </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:36">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1485</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>13859.999999999996</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>51975</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>62370</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>10395</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH12">
         <f t="shared" si="3"/>
-        <v>1485</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>13859.999999999996</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>51975</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>62370</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>10395</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="4"/>
         <v>140151</v>
       </c>
-      <c r="W12">
-        <f t="shared" si="1"/>
+      <c r="AI12">
+        <f>4^A12</f>
+        <v>16777216</v>
+      </c>
+      <c r="AJ12">
+        <f>2^A12</f>
         <v>4096</v>
       </c>
-      <c r="X12">
-        <f t="shared" si="2"/>
-        <v>16777216</v>
-      </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:36">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>286</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="D13">
+        <f t="shared" si="2"/>
+        <v>2145</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>25740</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>135135</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>270270</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>135135</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <f t="shared" si="3"/>
-        <v>2145</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>25740</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>135135</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>270270</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>135135</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="4"/>
         <v>568503</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="1"/>
+      <c r="AI13">
+        <f>4^A13</f>
+        <v>67108864</v>
+      </c>
+      <c r="AJ13">
+        <f>2^A13</f>
         <v>8192</v>
       </c>
-      <c r="X13">
-        <f t="shared" si="2"/>
-        <v>67108864</v>
-      </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:36">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>364</v>
       </c>
       <c r="C14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="D14">
+        <f t="shared" si="2"/>
+        <v>3003</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>45044.999999999993</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>315314.99999999994</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>945945</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>945945</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>135135</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
         <f t="shared" si="3"/>
-        <v>3003</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>45044.999999999993</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>315314.99999999994</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>945945</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>945945</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>135135</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="4"/>
         <v>2390479</v>
       </c>
-      <c r="W14">
-        <f t="shared" si="1"/>
+      <c r="AI14">
+        <f>4^A14</f>
+        <v>268435456</v>
+      </c>
+      <c r="AJ14">
+        <f>2^A14</f>
         <v>16384</v>
       </c>
-      <c r="X14">
-        <f t="shared" si="2"/>
-        <v>268435456</v>
-      </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:36">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>455.00000000000006</v>
       </c>
       <c r="C15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="D15">
+        <f t="shared" si="2"/>
+        <v>4095</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>75075</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>675674.99999999988</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2837835</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>4729725.0000000009</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2027025</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <f t="shared" si="3"/>
-        <v>4095</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>75075</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>675674.99999999988</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>2837835</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>4729725.0000000009</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>2027025</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="4"/>
         <v>10349535</v>
       </c>
-      <c r="W15">
-        <f t="shared" si="1"/>
+      <c r="AI15">
+        <f>4^A15</f>
+        <v>1073741824</v>
+      </c>
+      <c r="AJ15">
+        <f>2^A15</f>
         <v>32768</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="2"/>
-        <v>1073741824</v>
-      </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:36">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>560</v>
       </c>
       <c r="C16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="D16">
+        <f t="shared" si="2"/>
+        <v>5460.0000000000009</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>120120</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1351349.9999999998</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>7567560</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>18918900.000000004</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>16216200</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>2027025</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH16">
         <f t="shared" si="3"/>
-        <v>5460.0000000000009</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>120120</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>1351349.9999999998</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>7567560</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>18918900.000000004</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>16216200</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>2027025</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="4"/>
         <v>46206735</v>
       </c>
-      <c r="W16">
-        <f t="shared" si="1"/>
+      <c r="AI16">
+        <f>4^A16</f>
+        <v>4294967296</v>
+      </c>
+      <c r="AJ16">
+        <f>2^A16</f>
         <v>65536</v>
       </c>
-      <c r="X16">
-        <f t="shared" si="2"/>
-        <v>4294967296</v>
-      </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:36">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>680</v>
       </c>
       <c r="C17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="D17">
+        <f t="shared" si="2"/>
+        <v>7140</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>185640</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2552550</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>18378360</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>64324260.000000007</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>91891800</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>34459425</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH17">
         <f t="shared" si="3"/>
-        <v>7140</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>185640</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>2552550</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>18378360</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>64324260.000000007</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>91891800</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>34459425</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="4"/>
         <v>211799311</v>
       </c>
-      <c r="W17">
-        <f t="shared" si="1"/>
+      <c r="AI17">
+        <f>4^A17</f>
+        <v>17179869184</v>
+      </c>
+      <c r="AJ17">
+        <f>2^A17</f>
         <v>131072</v>
       </c>
-      <c r="X17">
-        <f t="shared" si="2"/>
-        <v>17179869184</v>
-      </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:36">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>816</v>
       </c>
       <c r="C18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>153</v>
       </c>
       <c r="D18">
+        <f t="shared" si="2"/>
+        <v>9180</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>278460.00000000006</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>4594590</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>41351310</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>192972780.00000003</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>413513100</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>310134825</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>34459425</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:AC33" si="6">IF($A18&lt;2*N$1,0,COMBIN($A18,N$1*2))*FACTDOUBLE(N$1*2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" ref="AB18:AG60" si="7">IF($A18&lt;2*AD$1,0,COMBIN($A18,AD$1*2))*FACTDOUBLE(AD$1*2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH18">
         <f t="shared" si="3"/>
-        <v>9180</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>278460.00000000006</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>4594590</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>41351310</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>192972780.00000003</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>413513100</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>310134825</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>34459425</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ref="N18:U33" si="7">IF($A18&lt;2*N$1,0,COMBIN($A18,N$1*2))*FACTDOUBLE(N$1*2-1)</f>
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="4"/>
         <v>997313823</v>
       </c>
-      <c r="W18">
-        <f t="shared" si="1"/>
+      <c r="AI18">
+        <f>4^A18</f>
+        <v>68719476736</v>
+      </c>
+      <c r="AJ18">
+        <f>2^A18</f>
         <v>262144</v>
       </c>
-      <c r="X18">
-        <f t="shared" si="2"/>
-        <v>68719476736</v>
-      </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:36">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>969</v>
       </c>
       <c r="C19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>171</v>
       </c>
       <c r="D19">
+        <f t="shared" si="2"/>
+        <v>11628</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>406980</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>7936109.9999999981</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>87297210</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>523783260.00000006</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>1571349780</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>1964187225</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>654729075</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH19">
         <f t="shared" si="3"/>
-        <v>11628</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
-        <v>406980</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>7936109.9999999981</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>87297210</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>523783260.00000006</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>1571349780</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>1964187225</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>654729075</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="4"/>
         <v>4809701439</v>
       </c>
-      <c r="W19">
-        <f t="shared" si="1"/>
+      <c r="AI19">
+        <f>4^A19</f>
+        <v>274877906944</v>
+      </c>
+      <c r="AJ19">
+        <f>2^A19</f>
         <v>524288</v>
       </c>
-      <c r="X19">
-        <f t="shared" si="2"/>
-        <v>274877906944</v>
-      </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:36">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1140</v>
       </c>
       <c r="C20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>190</v>
       </c>
       <c r="D20">
+        <f t="shared" si="2"/>
+        <v>14535</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>581400</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>13226850.000000002</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>174594420</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1309458150.0000002</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>5237832600</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>9820936125</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>6547290750</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>654729075</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH20">
         <f t="shared" si="3"/>
-        <v>14535</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
-        <v>581400</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>13226850.000000002</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>174594420</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>1309458150.0000002</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
-        <v>5237832600</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
-        <v>9820936125</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>6547290750</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="3"/>
-        <v>654729075</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="4"/>
         <v>23758664095</v>
       </c>
-      <c r="W20">
-        <f t="shared" si="1"/>
+      <c r="AI20">
+        <f>4^A20</f>
+        <v>1099511627776</v>
+      </c>
+      <c r="AJ20">
+        <f>2^A20</f>
         <v>1048576</v>
       </c>
-      <c r="X20">
-        <f t="shared" si="2"/>
-        <v>1099511627776</v>
-      </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:36">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1330</v>
       </c>
       <c r="C21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="D21">
+        <f t="shared" si="2"/>
+        <v>17955</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>813960</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>21366450</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>333316620</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>3055402350.0000005</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>15713497800</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>41247931725</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>45831035250</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>13749310575</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <f t="shared" si="3"/>
-        <v>17955</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>813960</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>21366450</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>333316620</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>3055402350.0000005</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
-        <v>15713497800</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="3"/>
-        <v>41247931725</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
-        <v>45831035250</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="3"/>
-        <v>13749310575</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="4"/>
         <v>119952692895</v>
       </c>
-      <c r="W21">
-        <f t="shared" si="1"/>
+      <c r="AI21">
+        <f>4^A21</f>
+        <v>4398046511104</v>
+      </c>
+      <c r="AJ21">
+        <f>2^A21</f>
         <v>2097152</v>
       </c>
-      <c r="X21">
-        <f t="shared" si="2"/>
-        <v>4398046511104</v>
-      </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:36">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>231</v>
       </c>
       <c r="D22">
+        <f t="shared" si="2"/>
+        <v>21945</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>1119195</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>33575850</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>611080470.00000012</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>6721885170.000001</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>43212118950</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>151242416325</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>252070693875</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>151242416325</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>13749310575</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH22">
         <f t="shared" si="3"/>
-        <v>21945</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>1119195</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>33575850</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>611080470.00000012</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
-        <v>6721885170.000001</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
-        <v>43212118950</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
-        <v>151242416325</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
-        <v>252070693875</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="3"/>
-        <v>151242416325</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="3"/>
-        <v>13749310575</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="4"/>
         <v>618884638911</v>
       </c>
-      <c r="W22">
-        <f t="shared" si="1"/>
+      <c r="AI22">
+        <f>4^A22</f>
+        <v>17592186044416</v>
+      </c>
+      <c r="AJ22">
+        <f>2^A22</f>
         <v>4194304</v>
       </c>
-      <c r="X22">
-        <f t="shared" si="2"/>
-        <v>17592186044416</v>
-      </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:36">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1771</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C38" si="8">COMBIN($A23,C$1*2)*FACTDOUBLE(C$1*2-1)</f>
+        <f t="shared" ref="C23:C60" si="8">COMBIN($A23,C$1*2)*FACTDOUBLE(C$1*2-1)</f>
         <v>253</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:S38" si="9">IF($A23&lt;2*D$1,0,COMBIN($A23,D$1*2))*FACTDOUBLE(D$1*2-1)</f>
+        <f t="shared" ref="D23:S39" si="9">IF($A23&lt;2*D$1,0,COMBIN($A23,D$1*2))*FACTDOUBLE(D$1*2-1)</f>
         <v>26565</v>
       </c>
       <c r="E23">
@@ -2545,32 +3589,80 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="3"/>
         <v>3257843882623</v>
       </c>
-      <c r="W23">
-        <f t="shared" si="1"/>
+      <c r="AI23">
+        <f>4^A23</f>
+        <v>70368744177664</v>
+      </c>
+      <c r="AJ23">
+        <f>2^A23</f>
         <v>8388608</v>
       </c>
-      <c r="X23">
-        <f t="shared" si="2"/>
-        <v>70368744177664</v>
-      </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:36">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2024.0000000000002</v>
       </c>
       <c r="C24">
@@ -2618,56 +3710,104 @@
         <v>3794809718700</v>
       </c>
       <c r="N24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>316234143225</v>
       </c>
       <c r="O24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="3"/>
         <v>17492190577599</v>
       </c>
-      <c r="W24">
-        <f t="shared" si="1"/>
+      <c r="AI24">
+        <f>4^A24</f>
+        <v>281474976710656</v>
+      </c>
+      <c r="AJ24">
+        <f>2^A24</f>
         <v>16777216</v>
       </c>
-      <c r="X24">
-        <f t="shared" si="2"/>
-        <v>281474976710656</v>
-      </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:36">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2300</v>
       </c>
       <c r="C25">
@@ -2715,56 +3855,104 @@
         <v>31623414322500</v>
       </c>
       <c r="N25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7905853580625</v>
       </c>
       <c r="O25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="3"/>
         <v>95680443760575</v>
       </c>
-      <c r="W25">
-        <f t="shared" si="1"/>
+      <c r="AI25">
+        <f>4^A25</f>
+        <v>1125899906842624</v>
+      </c>
+      <c r="AJ25">
+        <f>2^A25</f>
         <v>33554432</v>
       </c>
-      <c r="X25">
-        <f t="shared" si="2"/>
-        <v>1125899906842624</v>
-      </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:36">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2600</v>
       </c>
       <c r="C26">
@@ -2812,56 +4000,104 @@
         <v>205552193096250</v>
       </c>
       <c r="N26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>102776096548125</v>
       </c>
       <c r="O26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7905853580625</v>
       </c>
       <c r="P26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="3"/>
         <v>532985208200575</v>
       </c>
-      <c r="W26">
-        <f t="shared" si="1"/>
+      <c r="AI26">
+        <f>4^A26</f>
+        <v>4503599627370496</v>
+      </c>
+      <c r="AJ26">
+        <f>2^A26</f>
         <v>67108864</v>
       </c>
-      <c r="X26">
-        <f t="shared" si="2"/>
-        <v>4503599627370496</v>
-      </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:36">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2925</v>
       </c>
       <c r="C27">
@@ -2909,56 +4145,104 @@
         <v>1109981842719750</v>
       </c>
       <c r="N27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>924984868933125</v>
       </c>
       <c r="O27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>213458046676875</v>
       </c>
       <c r="P27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="3"/>
         <v>3020676745975551</v>
       </c>
-      <c r="W27">
-        <f t="shared" si="1"/>
+      <c r="AI27">
+        <f>4^A27</f>
+        <v>1.8014398509481984E+16</v>
+      </c>
+      <c r="AJ27">
+        <f>2^A27</f>
         <v>134217728</v>
       </c>
-      <c r="X27">
-        <f t="shared" si="2"/>
-        <v>1.8014398509481984E+16</v>
-      </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:36">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3276</v>
       </c>
       <c r="C28">
@@ -3006,56 +4290,104 @@
         <v>5179915266025500</v>
       </c>
       <c r="N28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6474894082531875</v>
       </c>
       <c r="O28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2988412653476250</v>
       </c>
       <c r="P28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>213458046676875</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="3"/>
         <v>1.7411277367391104E+16</v>
       </c>
-      <c r="W28">
-        <f t="shared" si="1"/>
+      <c r="AI28">
+        <f>4^A28</f>
+        <v>7.2057594037927936E+16</v>
+      </c>
+      <c r="AJ28">
+        <f>2^A28</f>
         <v>268435456</v>
       </c>
-      <c r="X28">
-        <f t="shared" si="2"/>
-        <v>7.2057594037927936E+16</v>
-      </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:36">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3654.0000000000005</v>
       </c>
       <c r="C29">
@@ -3103,56 +4435,104 @@
         <v>2.14596489592485E+16</v>
       </c>
       <c r="N29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.7554385678684872E+16</v>
       </c>
       <c r="O29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.8887988983603752E+16</v>
       </c>
       <c r="P29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6190283353629375</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="3"/>
         <v>1.0199022625470656E+17</v>
       </c>
-      <c r="W29">
-        <f t="shared" si="1"/>
+      <c r="AI29">
+        <f>4^A29</f>
+        <v>2.8823037615171174E+17</v>
+      </c>
+      <c r="AJ29">
+        <f>2^A29</f>
         <v>536870912</v>
       </c>
-      <c r="X29">
-        <f t="shared" si="2"/>
-        <v>2.8823037615171174E+17</v>
-      </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:36">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4059.9999999999995</v>
       </c>
       <c r="C30">
@@ -3200,56 +4580,104 @@
         <v>8.0473683597181872E+16</v>
       </c>
       <c r="N30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.8777192839342435E+17</v>
       </c>
       <c r="O30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.1665991737702816E+17</v>
       </c>
       <c r="P30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.2854250304440624E+16</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6190283353629375</v>
       </c>
       <c r="R30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="3"/>
         <v>6.0691726990904858E+17</v>
       </c>
-      <c r="W30">
-        <f t="shared" si="1"/>
+      <c r="AI30">
+        <f>4^A30</f>
+        <v>1.152921504606847E+18</v>
+      </c>
+      <c r="AJ30">
+        <f>2^A30</f>
         <v>1073741824</v>
       </c>
-      <c r="X30">
-        <f t="shared" si="2"/>
-        <v>1.152921504606847E+18</v>
-      </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:36">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4495</v>
       </c>
       <c r="C31">
@@ -3297,56 +4725,104 @@
         <v>2.7718713239029312E+17</v>
       </c>
       <c r="N31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.3156139717087923E+17</v>
       </c>
       <c r="O31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.3432914877375747E+18</v>
       </c>
       <c r="P31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.5949391981255309E+17</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.9189878396251062E+17</v>
       </c>
       <c r="R31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="3"/>
         <v>3.6666240575502459E+18</v>
       </c>
-      <c r="W31">
-        <f t="shared" si="1"/>
+      <c r="AI31">
+        <f>4^A31</f>
+        <v>4.6116860184273879E+18</v>
+      </c>
+      <c r="AJ31">
+        <f>2^A31</f>
         <v>2147483648</v>
       </c>
-      <c r="X31">
-        <f t="shared" si="2"/>
-        <v>4.6116860184273879E+18</v>
-      </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:36">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4960</v>
       </c>
       <c r="C32">
@@ -3394,56 +4870,104 @@
         <v>8.8699882364893798E+17</v>
       </c>
       <c r="N32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.3262455886835169E+18</v>
       </c>
       <c r="O32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.1642212679337318E+18</v>
       </c>
       <c r="P32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7.6759513585004247E+18</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.07038054340017E+18</v>
       </c>
       <c r="R32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.9189878396251066E+17</v>
       </c>
       <c r="S32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="3"/>
         <v>2.2481059424730751E+19</v>
       </c>
-      <c r="W32">
-        <f t="shared" si="1"/>
+      <c r="AI32">
+        <f>4^A32</f>
+        <v>1.8446744073709552E+19</v>
+      </c>
+      <c r="AJ32">
+        <f>2^A32</f>
         <v>4294967296</v>
       </c>
-      <c r="X32">
-        <f t="shared" si="2"/>
-        <v>1.8446744073709552E+19</v>
-      </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:36">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5455.9999999999991</v>
       </c>
       <c r="C33">
@@ -3491,56 +5015,104 @@
         <v>2.660996470946814E+18</v>
       </c>
       <c r="N33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.2196233825172896E+19</v>
       </c>
       <c r="O33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.3774185977401876E+19</v>
       </c>
       <c r="P33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.0661278966102802E+19</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.3774185977401864E+19</v>
       </c>
       <c r="R33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6.3326598707628513E+18</v>
       </c>
       <c r="S33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="3"/>
         <v>1.3981302926633859E+20</v>
       </c>
-      <c r="W33">
-        <f t="shared" si="1"/>
+      <c r="AI33">
+        <f>4^A33</f>
+        <v>7.3786976294838206E+19</v>
+      </c>
+      <c r="AJ33">
+        <f>2^A33</f>
         <v>8589934592</v>
       </c>
-      <c r="X33">
-        <f t="shared" si="2"/>
-        <v>7.3786976294838206E+19</v>
-      </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:36">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5984</v>
       </c>
       <c r="C34">
@@ -3588,7 +5160,7 @@
         <v>7.5394900010159729E+18</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:U38" si="10">IF($A34&lt;2*N$1,0,COMBIN($A34,N$1*2))*FACTDOUBLE(N$1*2-1)</f>
+        <f t="shared" ref="N34:AB49" si="10">IF($A34&lt;2*N$1,0,COMBIN($A34,N$1*2))*FACTDOUBLE(N$1*2-1)</f>
         <v>4.1467195005587841E+19</v>
       </c>
       <c r="O34">
@@ -3620,24 +5192,72 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="3"/>
         <v>8.8168799028245325E+20</v>
       </c>
-      <c r="W34">
-        <f t="shared" si="1"/>
+      <c r="AI34">
+        <f>4^A34</f>
+        <v>2.9514790517935283E+20</v>
+      </c>
+      <c r="AJ34">
+        <f>2^A34</f>
         <v>17179869184</v>
       </c>
-      <c r="X34">
-        <f t="shared" si="2"/>
-        <v>2.9514790517935283E+20</v>
-      </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:36">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6545</v>
       </c>
       <c r="C35">
@@ -3717,24 +5337,72 @@
         <v>0</v>
       </c>
       <c r="V35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="3"/>
         <v>5.635330985337966E+21</v>
       </c>
-      <c r="W35">
-        <f t="shared" si="1"/>
+      <c r="AI35">
+        <f>4^A35</f>
+        <v>1.1805916207174113E+21</v>
+      </c>
+      <c r="AJ35">
+        <f>2^A35</f>
         <v>34359738368</v>
       </c>
-      <c r="X35">
-        <f t="shared" si="2"/>
-        <v>1.1805916207174113E+21</v>
-      </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:36">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7139.9999999999991</v>
       </c>
       <c r="C36">
@@ -3814,24 +5482,72 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="3"/>
         <v>3.6494410645223833E+22</v>
       </c>
-      <c r="W36">
-        <f t="shared" si="1"/>
+      <c r="AI36">
+        <f>4^A36</f>
+        <v>4.7223664828696452E+21</v>
+      </c>
+      <c r="AJ36">
+        <f>2^A36</f>
         <v>68719476736</v>
       </c>
-      <c r="X36">
-        <f t="shared" si="2"/>
-        <v>4.7223664828696452E+21</v>
-      </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:36">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7770</v>
       </c>
       <c r="C37">
@@ -3911,24 +5627,72 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="3"/>
         <v>2.3936632611739063E+23</v>
       </c>
-      <c r="W37">
-        <f t="shared" si="1"/>
+      <c r="AI37">
+        <f>4^A37</f>
+        <v>1.8889465931478581E+22</v>
+      </c>
+      <c r="AJ37">
+        <f>2^A37</f>
         <v>137438953472</v>
       </c>
-      <c r="X37">
-        <f t="shared" si="2"/>
-        <v>1.8889465931478581E+22</v>
-      </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:36">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8436</v>
       </c>
       <c r="C38">
@@ -4008,32 +5772,3270 @@
         <v>8.2007945326378919E+21</v>
       </c>
       <c r="V38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="3"/>
         <v>1.5896595199906724E+24</v>
       </c>
-      <c r="W38">
-        <f t="shared" si="1"/>
+      <c r="AI38">
+        <f>4^A38</f>
+        <v>7.5557863725914323E+22</v>
+      </c>
+      <c r="AJ38">
+        <f>2^A38</f>
         <v>274877906944</v>
       </c>
-      <c r="X38">
-        <f t="shared" si="2"/>
-        <v>7.5557863725914323E+22</v>
-      </c>
     </row>
-    <row r="39" spans="1:24">
-      <c r="A39" t="s">
+    <row r="39" spans="1:36">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:B53" si="11">COMBIN(A39, 3)</f>
+        <v>9139</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="8"/>
+        <v>741</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="9"/>
+        <v>246753</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="9"/>
+        <v>48939344.999999993</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="9"/>
+        <v>6459993540</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="9"/>
+        <v>600779399220</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="9"/>
+        <v>40652739347219.992</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="9"/>
+        <v>2038444501553459.7</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="9"/>
+        <v>7.6441668808254816E+16</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="9"/>
+        <v>2.148860245387606E+18</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="9"/>
+        <v>4.5126065153139712E+19</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="9"/>
+        <v>7.015051946533539E+20</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="10"/>
+        <v>7.9503922060713389E+21</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="10"/>
+        <v>6.4214706279807028E+22</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="10"/>
+        <v>3.5776764927321044E+23</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="10"/>
+        <v>1.3118147140017713E+24</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="10"/>
+        <v>2.9515831065039867E+24</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="10"/>
+        <v>3.646073249210807E+24</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="10"/>
+        <v>2.0255962495615588E+24</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="10"/>
+        <v>3.1983098677287775E+23</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="3"/>
+        <v>1.0685579912451517E+25</v>
+      </c>
+      <c r="AI39">
+        <f>4^A39</f>
+        <v>3.0223145490365729E+23</v>
+      </c>
+      <c r="AJ39">
+        <f>2^A39</f>
+        <v>549755813888</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="11"/>
+        <v>9880</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="8"/>
+        <v>780</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:S55" si="12">IF($A40&lt;2*D$1,0,COMBIN($A40,D$1*2))*FACTDOUBLE(D$1*2-1)</f>
+        <v>274170</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="12"/>
+        <v>57575700</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="12"/>
+        <v>8074991925</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="12"/>
+        <v>801039198959.99976</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="12"/>
+        <v>58075341924599.992</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="12"/>
+        <v>3136068463928401</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="12"/>
+        <v>1.2740278134709117E+17</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="12"/>
+        <v>3.9070186279774648E+18</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="12"/>
+        <v>9.0252130306279424E+19</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="12"/>
+        <v>1.5589004325630084E+21</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="10"/>
+        <v>1.9875980515178348E+22</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="10"/>
+        <v>1.8347058937087723E+23</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="10"/>
+        <v>1.1925588309107014E+24</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="10"/>
+        <v>5.2472588560070852E+24</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="10"/>
+        <v>1.4757915532519934E+25</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="10"/>
+        <v>2.4307154994738715E+25</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="10"/>
+        <v>2.0255962495615589E+25</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="10"/>
+        <v>6.3966197354575558E+24</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="10"/>
+        <v>3.1983098677287769E+23</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="3"/>
+        <v>7.2682301192087747E+25</v>
+      </c>
+      <c r="AI40">
+        <f>4^A40</f>
+        <v>1.2089258196146292E+24</v>
+      </c>
+      <c r="AJ40">
+        <f>2^A40</f>
+        <v>1099511627776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="11"/>
+        <v>10660</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="8"/>
+        <v>820</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="12"/>
+        <v>303810</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="12"/>
+        <v>67445820.000000015</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="12"/>
+        <v>10032565724.999998</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="12"/>
+        <v>1059438940559.9998</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="12"/>
+        <v>82106517893400</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="12"/>
+        <v>4762178037817199</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="12"/>
+        <v>2.0894056140922963E+17</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="12"/>
+        <v>6.9646853803076598E+18</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="12"/>
+        <v>1.7620654012178373E+20</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="12"/>
+        <v>3.3639430386885974E+21</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="10"/>
+        <v>4.7936188301312487E+22</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="10"/>
+        <v>5.0148627761373107E+23</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="10"/>
+        <v>3.7611470821029812E+24</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="10"/>
+        <v>1.9557964826935503E+25</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="10"/>
+        <v>6.7230504092590807E+25</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="10"/>
+        <v>1.4237047925489818E+26</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="10"/>
+        <v>1.6609889246404781E+26</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="10"/>
+        <v>8.742046971791993E+25</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="10"/>
+        <v>1.3113070457687986E+25</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="3"/>
+        <v>5.0010549769014834E+26</v>
+      </c>
+      <c r="AI41">
+        <f>4^A41</f>
+        <v>4.8357032784585167E+24</v>
+      </c>
+      <c r="AJ41">
+        <f>2^A41</f>
+        <v>2199023255552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="11"/>
+        <v>11480</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="8"/>
+        <v>861</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="12"/>
+        <v>335790</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="12"/>
+        <v>78686790</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="12"/>
+        <v>12393169425</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="12"/>
+        <v>1390513609485</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="12"/>
+        <v>114949125050759.98</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="12"/>
+        <v>7143267056725799</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="12"/>
+        <v>3.3751936843029414E+17</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="12"/>
+        <v>1.2188199415538389E+19</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="12"/>
+        <v>3.3639430386885971E+20</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="12"/>
+        <v>7.0642803812460533E+21</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="10"/>
+        <v>1.118511060363958E+23</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="10"/>
+        <v>1.3164014787360442E+24</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="10"/>
+        <v>1.1283441246308945E+25</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="10"/>
+        <v>6.8452876894274259E+25</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="10"/>
+        <v>2.823681171888814E+26</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="10"/>
+        <v>7.4744501608821538E+26</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="10"/>
+        <v>1.1626922472483348E+27</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="10"/>
+        <v>9.1791493203815929E+26</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="10"/>
+        <v>2.7537447961144767E+26</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="10"/>
+        <v>1.3113070457687992E+25</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="3"/>
+        <v>3.480079846565746E+27</v>
+      </c>
+      <c r="AI42">
+        <f>4^A42</f>
+        <v>1.9342813113834067E+25</v>
+      </c>
+      <c r="AJ42">
+        <f>2^A42</f>
+        <v>4398046511104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="11"/>
+        <v>12341</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="8"/>
+        <v>903</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="12"/>
+        <v>370230</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="12"/>
+        <v>91446810</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="12"/>
+        <v>15225893865.000004</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="12"/>
+        <v>1811881369934.9998</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="12"/>
+        <v>159445560554279.97</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="12"/>
+        <v>1.05917408082486E+16</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="12"/>
+        <v>5.3753084601861645E+17</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="12"/>
+        <v>2.0963702994726035E+19</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="12"/>
+        <v>6.289110898417816E+20</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="12"/>
+        <v>1.4464955066360967E+22</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="10"/>
+        <v>2.5313671366131685E+23</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="10"/>
+        <v>3.3297213873911705E+24</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="10"/>
+        <v>3.2345864906085636E+25</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="10"/>
+        <v>2.2642105434259945E+26</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="10"/>
+        <v>1.1038026399201727E+27</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="10"/>
+        <v>3.5711261879770295E+27</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="10"/>
+        <v>7.1422523759540568E+27</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="10"/>
+        <v>7.8940684155281699E+27</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="10"/>
+        <v>3.9470342077640833E+27</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="10"/>
+        <v>5.6386202968058365E+26</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="3"/>
+        <v>2.4484510749551974E+28</v>
+      </c>
+      <c r="AI43">
+        <f>4^A43</f>
+        <v>7.7371252455336267E+25</v>
+      </c>
+      <c r="AJ43">
+        <f>2^A43</f>
+        <v>8796093022208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="11"/>
+        <v>13244</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="8"/>
+        <v>946</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="12"/>
+        <v>407253</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="12"/>
+        <v>105885780</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="12"/>
+        <v>18609425835</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="12"/>
+        <v>2344787655210</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="12"/>
+        <v>219237645762135</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="12"/>
+        <v>1.553455318543128E+16</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="12"/>
+        <v>8.4469132945782566E+17</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="12"/>
+        <v>3.54770358372287E+19</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="12"/>
+        <v>1.1530036647099318E+21</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="12"/>
+        <v>2.8929910132721934E+22</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="10"/>
+        <v>5.5690077005489706E+23</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="10"/>
+        <v>8.139318946956194E+24</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="10"/>
+        <v>8.8951128491735508E+25</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="10"/>
+        <v>7.1160902793388421E+26</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="10"/>
+        <v>4.0472763463739668E+27</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="10"/>
+        <v>1.5712955227098929E+28</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="10"/>
+        <v>3.9282388067747312E+28</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="10"/>
+        <v>5.7889835047206574E+28</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="10"/>
+        <v>4.3417376285404917E+28</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="10"/>
+        <v>1.2404964652972841E+28</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="10"/>
+        <v>5.6386202968058358E+26</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="3"/>
+        <v>1.7412794415187905E+29</v>
+      </c>
+      <c r="AI44">
+        <f>4^A44</f>
+        <v>3.0948500982134507E+26</v>
+      </c>
+      <c r="AJ44">
+        <f>2^A44</f>
+        <v>17592186044416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="11"/>
+        <v>14190</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="8"/>
+        <v>990</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="12"/>
+        <v>446985</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="12"/>
+        <v>122175899.99999999</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="12"/>
+        <v>22633085475</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="12"/>
+        <v>3014726985270.0005</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="12"/>
+        <v>298960426039274.94</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="12"/>
+        <v>2.2550157849819596E+16</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="12"/>
+        <v>1.3107279250207642E+18</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="12"/>
+        <v>5.9128393062047818E+19</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="12"/>
+        <v>2.0754065964778777E+21</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="12"/>
+        <v>5.6601998085760353E+22</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="10"/>
+        <v>1.1933587929747794E+24</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="10"/>
+        <v>1.9277334348054146E+25</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="10"/>
+        <v>2.3545886953694691E+26</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="10"/>
+        <v>2.1348270838016525E+27</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="10"/>
+        <v>1.4009802737448347E+28</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="10"/>
+        <v>6.4280271383586525E+28</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="10"/>
+        <v>1.9641194033873655E+29</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="10"/>
+        <v>3.7214893958918512E+29</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="10"/>
+        <v>3.9075638656864425E+29</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="10"/>
+        <v>1.860744697945926E+29</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="10"/>
+        <v>2.537379133562626E+28</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="3"/>
+        <v>1.2514464171321661E+30</v>
+      </c>
+      <c r="AI45">
+        <f>4^A45</f>
+        <v>1.2379400392853803E+27</v>
+      </c>
+      <c r="AJ45">
+        <f>2^A45</f>
+        <v>35184372088832</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="11"/>
+        <v>15180</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="8"/>
+        <v>1035</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="12"/>
+        <v>489555</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="12"/>
+        <v>140502285</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="12"/>
+        <v>27397945575</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="12"/>
+        <v>3852151147845</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="12"/>
+        <v>404475870523725</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="12"/>
+        <v>3.2415851909115676E+16</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="12"/>
+        <v>2.009782818365172E+18</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="12"/>
+        <v>9.7139502887649952E+19</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="12"/>
+        <v>3.6718732091531702E+21</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="12"/>
+        <v>1.0848716299770722E+23</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="10"/>
+        <v>2.495204748947266E+24</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="10"/>
+        <v>4.4337869000524532E+25</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="10"/>
+        <v>6.0172822214997547E+26</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="10"/>
+        <v>6.1376278659297511E+27</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="10"/>
+        <v>4.6032208994473134E+28</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="10"/>
+        <v>2.4640770697041503E+29</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="10"/>
+        <v>9.0349492555818819E+29</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="10"/>
+        <v>2.1398564026378145E+30</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="10"/>
+        <v>2.9957989636929391E+30</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="10"/>
+        <v>2.1398564026378151E+30</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="10"/>
+        <v>5.8359720071940403E+29</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="10"/>
+        <v>2.5373791335626256E+28</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="3"/>
+        <v>9.0872039039667223E+30</v>
+      </c>
+      <c r="AI46">
+        <f>4^A46</f>
+        <v>4.9517601571415211E+27</v>
+      </c>
+      <c r="AJ46">
+        <f>2^A46</f>
+        <v>70368744177664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="11"/>
+        <v>16215</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="8"/>
+        <v>1081</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="12"/>
+        <v>535095</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="12"/>
+        <v>161063595</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="12"/>
+        <v>33018036975</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="12"/>
+        <v>4893273079694.999</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="12"/>
+        <v>543153311846145.06</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="12"/>
+        <v>4.6168031506922328E+16</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="12"/>
+        <v>3.0470900794568724E+18</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="12"/>
+        <v>1.5743298743860514E+20</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="12"/>
+        <v>6.3917792900073694E+21</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="12"/>
+        <v>2.0395586643568963E+23</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="10"/>
+        <v>5.0988966608922395E+24</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="10"/>
+        <v>9.9232373477364441E+25</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="10"/>
+        <v>1.4884856021604657E+27</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="10"/>
+        <v>1.696873586462931E+28</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="10"/>
+        <v>1.442342548493492E+29</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="10"/>
+        <v>8.9085863289303899E+29</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="10"/>
+        <v>3.8603874092031675E+30</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="10"/>
+        <v>1.1174805658219697E+31</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="10"/>
+        <v>2.0114650184795449E+31</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="10"/>
+        <v>2.0114650184795458E+31</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="10"/>
+        <v>9.1430228112706632E+30</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="10"/>
+        <v>1.192568192774434E+30</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="3"/>
+        <v>6.6653739092046364E+31</v>
+      </c>
+      <c r="AI47">
+        <f>4^A47</f>
+        <v>1.9807040628566084E+28</v>
+      </c>
+      <c r="AJ47">
+        <f>2^A47</f>
+        <v>140737488355328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="11"/>
+        <v>17296</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="8"/>
+        <v>1128</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="12"/>
+        <v>583740</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="12"/>
+        <v>184072679.99999997</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="12"/>
+        <v>39621644370</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="12"/>
+        <v>6180976521720</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="12"/>
+        <v>724204415794860</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="12"/>
+        <v>6.51783974215374E+16</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="12"/>
+        <v>4.5706351191853112E+18</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="12"/>
+        <v>2.518927799017682E+20</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="12"/>
+        <v>1.0957335925726915E+22</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="12"/>
+        <v>3.7653390726588878E+23</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="10"/>
+        <v>1.0197793321784479E+25</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="10"/>
+        <v>2.1650699667788602E+26</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="10"/>
+        <v>3.572365445185117E+27</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="10"/>
+        <v>4.5249962305678166E+28</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="10"/>
+        <v>4.3270276454804762E+29</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="10"/>
+        <v>3.0543724556332761E+30</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="10"/>
+        <v>1.544154963681267E+31</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="10"/>
+        <v>5.3639067159454546E+31</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="10"/>
+        <v>1.2068790110877271E+32</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="10"/>
+        <v>1.6091720147836367E+32</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="10"/>
+        <v>1.0971627373524795E+32</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="10"/>
+        <v>2.8621636626586418E+31</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="10"/>
+        <v>1.1925681927744343E+30</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="3"/>
+        <v>4.9375232257848234E+32</v>
+      </c>
+      <c r="AI48">
+        <f>4^A48</f>
+        <v>7.9228162514264338E+28</v>
+      </c>
+      <c r="AJ48">
+        <f>2^A48</f>
+        <v>281474976710656</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="11"/>
+        <v>18424</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="8"/>
+        <v>1176</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="12"/>
+        <v>635628</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="12"/>
+        <v>209757240</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="12"/>
+        <v>47352696930</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="12"/>
+        <v>7765842296519.998</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="12"/>
+        <v>959081523620219.62</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="12"/>
+        <v>9.1249756390152384E+16</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="12"/>
+        <v>6.7867006315175813E+18</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="12"/>
+        <v>3.9815310371569802E+20</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="12"/>
+        <v>1.8514119322779964E+22</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="12"/>
+        <v>6.8333931318624231E+23</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="10"/>
+        <v>1.9987674910697581E+25</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="10"/>
+        <v>4.6125403640071371E+26</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="10"/>
+        <v>8.3355193720986074E+27</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="10"/>
+        <v>1.1669727120938052E+29</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="10"/>
+        <v>1.2472020860502549E+30</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="10"/>
+        <v>9.9776166884020358E+30</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="10"/>
+        <v>5.8202764015678521E+31</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="10"/>
+        <v>2.3893766280120665E+32</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="10"/>
+        <v>6.5707857270331803E+32</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="10"/>
+        <v>1.1264204103485456E+33</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="10"/>
+        <v>1.0752194826054299E+33</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="10"/>
+        <v>4.6748673156757817E+32</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="10"/>
+        <v>5.843584144594728E+31</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="3"/>
+        <v>3.6931317989967073E+33</v>
+      </c>
+      <c r="AI49">
+        <f>4^A49</f>
+        <v>3.1691265005705735E+29</v>
+      </c>
+      <c r="AJ49">
+        <f>2^A49</f>
+        <v>562949953421312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="11"/>
+        <v>19600</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="8"/>
+        <v>1225</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="12"/>
+        <v>690900</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="12"/>
+        <v>238360500</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="12"/>
+        <v>56372258249.999985</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="12"/>
+        <v>9707302870650</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="12"/>
+        <v>1261949373184500</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="12"/>
+        <v>1.267357727641005E+17</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="12"/>
+        <v>9.9804421051729142E+18</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="12"/>
+        <v>6.2211422455577864E+20</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="12"/>
+        <v>3.0856865537966605E+22</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="12"/>
+        <v>1.2202487735468609E+24</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="12"/>
+        <v>3.8437836366726141E+25</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="12"/>
+        <v>9.609459091681536E+26</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="12"/>
+        <v>1.8944362209315013E+28</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="12"/>
+        <v>2.917431780234513E+29</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="12"/>
+        <v>3.4644502390284862E+30</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="12"/>
+        <v>3.118005215125636E+31</v>
+      </c>
+      <c r="T50">
+        <f t="shared" ref="N50:AB60" si="13">IF($A50&lt;2*T$1,0,COMBIN($A50,T$1*2))*FACTDOUBLE(T$1*2-1)</f>
+        <v>2.07867014341709E+32</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="13"/>
+        <v>9.9557359500502762E+32</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="13"/>
+        <v>3.2853928635165901E+33</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="13"/>
+        <v>7.0401275646784093E+33</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="13"/>
+        <v>8.96016235504525E+33</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="13"/>
+        <v>5.8435841445947272E+33</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="13"/>
+        <v>1.4608960361486821E+33</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="13"/>
+        <v>5.8435841445947289E+31</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="3"/>
+        <v>2.7886995605342345E+34</v>
+      </c>
+      <c r="AI50">
+        <f>4^A50</f>
+        <v>1.2676506002282294E+30</v>
+      </c>
+      <c r="AJ50">
+        <f>2^A50</f>
+        <v>1125899906842624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="11"/>
+        <v>20825.000000000004</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="8"/>
+        <v>1275</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="12"/>
+        <v>749700</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="12"/>
+        <v>270141900.00000006</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="12"/>
+        <v>66860120250</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="12"/>
+        <v>12074937717150</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="12"/>
+        <v>1650241488010499.7</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="12"/>
+        <v>1.7468984894511146E+17</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="12"/>
+        <v>1.4542929924680536E+19</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="12"/>
+        <v>9.6144925613165733E+20</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="12"/>
+        <v>5.0764520723751492E+22</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="12"/>
+        <v>2.1459547396858599E+24</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="13"/>
+        <v>7.2604802026038261E+25</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="13"/>
+        <v>1.9603296547030334E+27</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="13"/>
+        <v>4.2007064029350682E+28</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="13"/>
+        <v>7.0851914662838185E+29</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="13"/>
+        <v>9.2993137994975149E+30</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="13"/>
+        <v>9.3540156453769094E+31</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="13"/>
+        <v>7.0674784876181069E+32</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="13"/>
+        <v>3.9057117957889548E+33</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="13"/>
+        <v>1.5232276003576921E+34</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="13"/>
+        <v>3.9894056199844326E+34</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="13"/>
+        <v>6.528118287247253E+34</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="13"/>
+        <v>5.9604558274866214E+34</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="13"/>
+        <v>2.4835232614527597E+34</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="13"/>
+        <v>2.9802279137433119E+33</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="3"/>
+        <v>2.1254358555517775E+35</v>
+      </c>
+      <c r="AI51">
+        <f>4^A51</f>
+        <v>5.0706024009129176E+30</v>
+      </c>
+      <c r="AJ51">
+        <f>2^A51</f>
+        <v>2251799813685248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="11"/>
+        <v>22100</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="8"/>
+        <v>1326</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="12"/>
+        <v>812175.00000000023</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="12"/>
+        <v>305377800</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="12"/>
+        <v>79016505750</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="12"/>
+        <v>14949922887899.996</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="12"/>
+        <v>2145313934413650.2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="12"/>
+        <v>2.3904926697752099E+17</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="12"/>
+        <v>2.1006454335649657E+19</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="12"/>
+        <v>1.4704518034954762E+21</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="12"/>
+        <v>8.2492346176096231E+22</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="12"/>
+        <v>3.719654882122157E+24</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="13"/>
+        <v>1.3483748947692812E+26</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="13"/>
+        <v>3.9206593094060668E+27</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="13"/>
+        <v>9.1015305396926477E+28</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="13"/>
+        <v>1.6746816193034481E+30</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="13"/>
+        <v>2.4178215878693541E+31</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="13"/>
+        <v>2.7022711864422184E+32</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="13"/>
+        <v>2.2969305084758846E+33</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="13"/>
+        <v>1.4506929527216116E+34</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="13"/>
+        <v>6.6006529348833326E+34</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="13"/>
+        <v>2.0744909223919048E+35</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="13"/>
+        <v>4.2432768867107149E+35</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="13"/>
+        <v>5.1657283838217383E+35</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="13"/>
+        <v>3.2285802398885878E+35</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="13"/>
+        <v>7.7485925757326106E+34</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="7"/>
+        <v>2.9802279137433119E+33</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="3"/>
+        <v>1.6347803614276374E+36</v>
+      </c>
+      <c r="AI52">
+        <f>4^A52</f>
+        <v>2.028240960365167E+31</v>
+      </c>
+      <c r="AJ52">
+        <f>2^A52</f>
+        <v>4503599627370496</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="11"/>
+        <v>23425.999999999996</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="8"/>
+        <v>1378</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="12"/>
+        <v>878475</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="12"/>
+        <v>344362199.99999994</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="12"/>
+        <v>93063884550.000031</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="12"/>
+        <v>18426649140900</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="12"/>
+        <v>2773210695705450</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="12"/>
+        <v>3.2486182435406688E+17</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="12"/>
+        <v>3.0090326480795447E+19</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="12"/>
+        <v>2.2266841595788644E+21</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="12"/>
+        <v>1.3248770749494237E+23</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="12"/>
+        <v>6.3594099597572332E+24</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="13"/>
+        <v>2.4642713594059289E+26</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="13"/>
+        <v>7.6961090147600552E+27</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="13"/>
+        <v>1.9295244744148416E+29</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="13"/>
+        <v>3.8590489488296849E+30</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="13"/>
+        <v>6.1021211503369408E+31</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="13"/>
+        <v>7.5379143621809259E+32</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="13"/>
+        <v>7.1610186440718756E+33</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="13"/>
+        <v>5.1257817662830279E+34</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="13"/>
+        <v>2.6910354272985894E+35</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="13"/>
+        <v>9.995274444251905E+35</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="13"/>
+        <v>2.4988186110629763E+36</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="13"/>
+        <v>3.9111943477507445E+36</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="13"/>
+        <v>3.4222950542819035E+36</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="13"/>
+        <v>1.368918021712761E+36</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="7"/>
+        <v>1.5795207942839552E+35</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="3"/>
+        <v>1.2687046810296882E+37</v>
+      </c>
+      <c r="AI53">
+        <f>4^A53</f>
+        <v>8.1129638414606682E+31</v>
+      </c>
+      <c r="AJ53">
+        <f>2^A53</f>
+        <v>9007199254740992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54:B60" si="14">COMBIN(A54, 3)</f>
+        <v>24804.000000000004</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="8"/>
+        <v>1431</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="12"/>
+        <v>948752.99999999977</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="12"/>
+        <v>387407475.00000012</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="12"/>
+        <v>109248907950</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="12"/>
+        <v>22614523945650</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="12"/>
+        <v>3565556608764149.5</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="12"/>
+        <v>4.3856346287799053E+17</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="12"/>
+        <v>4.2759937630604067E+19</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="12"/>
+        <v>3.3400262393682954E+21</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="12"/>
+        <v>2.1042165308020266E+23</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="12"/>
+        <v>1.073150430709034E+25</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="13"/>
+        <v>4.4356884469306723E+26</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="13"/>
+        <v>1.484249595703724E+28</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="13"/>
+        <v>4.0074739084000547E+29</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="13"/>
+        <v>8.6828601348667902E+30</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="13"/>
+        <v>1.4977933732645221E+32</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="13"/>
+        <v>2.03523687778885E+33</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="13"/>
+        <v>2.1483055932215626E+34</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="13"/>
+        <v>1.729951346120522E+35</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="13"/>
+        <v>1.0379708076723131E+36</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="13"/>
+        <v>4.4978734999133573E+36</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="13"/>
+        <v>1.3493620499740072E+37</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="13"/>
+        <v>2.6400561847317526E+37</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="13"/>
+        <v>3.0800655488537131E+37</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="13"/>
+        <v>1.8480393293122273E+37</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="7"/>
+        <v>4.2647061445666792E+36</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="7"/>
+        <v>1.5795207942839554E+35</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="3"/>
+        <v>9.9330405965961676E+37</v>
+      </c>
+      <c r="AI54">
+        <f>4^A54</f>
+        <v>3.2451855365842673E+32</v>
+      </c>
+      <c r="AJ54">
+        <f>2^A54</f>
+        <v>1.8014398509481984E+16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="14"/>
+        <v>26235</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="8"/>
+        <v>1485</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="12"/>
+        <v>1023165.0000000002</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="12"/>
+        <v>434845125</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="12"/>
+        <v>127844466749.99997</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="12"/>
+        <v>27639973711350.012</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="12"/>
+        <v>4560595662372750</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="12"/>
+        <v>5.8831684044608474E+17</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="12"/>
+        <v>6.0302476145723662E+19</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="12"/>
+        <v>4.9649038693312496E+21</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="12"/>
+        <v>3.3066259769746132E+23</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="12"/>
+        <v>1.7885840511817223E+25</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="13"/>
+        <v>7.8697698251995755E+26</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="13"/>
+        <v>2.8149561297829267E+28</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="13"/>
+        <v>8.1633727763704823E+29</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="13"/>
+        <v>1.9102292296706943E+31</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="13"/>
+        <v>3.5816798056325532E+32</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="13"/>
+        <v>5.3303822989707975E+33</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="13"/>
+        <v>6.2187793487992607E+34</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="13"/>
+        <v>5.5969014139193357E+35</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="13"/>
+        <v>3.8058929614651479E+36</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="13"/>
+        <v>1.9029464807325745E+37</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="13"/>
+        <v>6.7468102498700361E+37</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="13"/>
+        <v>1.6133676684471823E+38</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="13"/>
+        <v>2.4200515026707751E+38</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="13"/>
+        <v>2.0328432622434505E+38</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="7"/>
+        <v>7.8186279317055782E+37</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="7"/>
+        <v>8.6873643685617548E+36</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="3"/>
+        <v>7.8443093372199346E+38</v>
+      </c>
+      <c r="AI55">
+        <f>4^A55</f>
+        <v>1.2980742146337069E+33</v>
+      </c>
+      <c r="AJ55">
+        <f>2^A55</f>
+        <v>3.6028797018963968E+16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="14"/>
+        <v>27719.999999999996</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="8"/>
+        <v>1540</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:M60" si="15">IF($A56&lt;2*D$1,0,COMBIN($A56,D$1*2))*FACTDOUBLE(D$1*2-1)</f>
+        <v>1101870</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="15"/>
+        <v>487026539.99999988</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="15"/>
+        <v>149151877875.00006</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="15"/>
+        <v>33648663648600</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="15"/>
+        <v>5804394479383499</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="15"/>
+        <v>7.8442245392811302E+17</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="15"/>
+        <v>8.4423466604013175E+19</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="15"/>
+        <v>7.3167004390144732E+21</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="15"/>
+        <v>5.1436404086271749E+23</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="15"/>
+        <v>2.9459031431228376E+25</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="13"/>
+        <v>1.377209719409927E+27</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="13"/>
+        <v>5.2545847755947964E+28</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="13"/>
+        <v>1.6326745552740962E+30</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="13"/>
+        <v>4.1143398792907257E+31</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="13"/>
+        <v>8.3572528798092913E+32</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="13"/>
+        <v>1.3568245851925667E+34</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="13"/>
+        <v>1.7412582176637929E+35</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="13"/>
+        <v>1.7412582176637932E+36</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="13"/>
+        <v>1.3320625365128018E+37</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="13"/>
+        <v>7.6117859229302978E+37</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="13"/>
+        <v>3.1485114499393496E+38</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="13"/>
+        <v>9.03485894330422E+38</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="13"/>
+        <v>1.6940360518695425E+39</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="13"/>
+        <v>1.8973203780938867E+39</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="7"/>
+        <v>1.094607910438781E+39</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="7"/>
+        <v>2.4324620231972914E+38</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="7"/>
+        <v>8.68736436856175E+36</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="3"/>
+        <v>6.2476032618498842E+39</v>
+      </c>
+      <c r="AI56">
+        <f>4^A56</f>
+        <v>5.1922968585348276E+33</v>
+      </c>
+      <c r="AJ56">
+        <f>2^A56</f>
+        <v>7.2057594037927936E+16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="14"/>
+        <v>29260.000000000004</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="8"/>
+        <v>1596</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="15"/>
+        <v>1185029.9999999998</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="15"/>
+        <v>544323780.00000024</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="15"/>
+        <v>173503204875</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="15"/>
+        <v>40807953786599.984</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="15"/>
+        <v>7352233007219104</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="15"/>
+        <v>1.039815811020987E+18</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="15"/>
+        <v>1.1736920966899391E+20</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="15"/>
+        <v>1.0693639103174995E+22</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="15"/>
+        <v>7.9239865754526734E+23</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="15"/>
+        <v>4.7976136902286205E+25</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="13"/>
+        <v>2.3788167880716903E+27</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="13"/>
+        <v>9.6616558777065549E+28</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="13"/>
+        <v>3.2090499879525367E+30</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="13"/>
+        <v>8.6858286340581975E+31</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="13"/>
+        <v>1.9054536565965186E+33</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="13"/>
+        <v>3.3625652763467962E+34</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="13"/>
+        <v>4.7262723050874377E+35</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="13"/>
+        <v>5.2237746529913793E+36</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="13"/>
+        <v>4.4663273283076299E+37</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="13"/>
+        <v>2.8924786507135135E+38</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="13"/>
+        <v>1.3805011742041763E+39</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="13"/>
+        <v>4.6816996342576415E+39</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="13"/>
+        <v>1.0728894995173769E+40</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="13"/>
+        <v>1.5449608793050218E+40</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="7"/>
+        <v>1.2478530179002103E+40</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="7"/>
+        <v>4.6216778440748539E+39</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="7"/>
+        <v>4.9517976900801972E+38</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="3"/>
+        <v>5.0175735550281507E+40</v>
+      </c>
+      <c r="AI57">
+        <f>4^A57</f>
+        <v>2.0769187434139311E+34</v>
+      </c>
+      <c r="AJ57">
+        <f>2^A57</f>
+        <v>1.4411518807585587E+17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="14"/>
+        <v>30856</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="8"/>
+        <v>1653</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="15"/>
+        <v>1272810.0000000002</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="15"/>
+        <v>607130370</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="15"/>
+        <v>201263717654.99994</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="15"/>
+        <v>49309610825475.023</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="15"/>
+        <v>9270206835189300</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="15"/>
+        <v>1.3706662963458463E+18</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="15"/>
+        <v>1.6208128954289635E+20</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="15"/>
+        <v>1.5505776699603753E+22</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="15"/>
+        <v>1.2094505825690924E+24</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="15"/>
+        <v>7.7294887231461096E+25</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="13"/>
+        <v>4.0579815796517087E+27</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="13"/>
+        <v>1.7511751278343152E+29</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="13"/>
+        <v>6.2041633100415703E+30</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="13"/>
+        <v>1.7992073599120551E+32</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="13"/>
+        <v>4.2506273877922336E+33</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="13"/>
+        <v>8.1261994178380895E+34</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="13"/>
+        <v>1.2460172440685064E+36</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="13"/>
+        <v>1.5148946493675E+37</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="13"/>
+        <v>1.4391499168991249E+38</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="13"/>
+        <v>1.0485235108836486E+39</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="13"/>
+        <v>5.7192191502744452E+39</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="13"/>
+        <v>2.2628214898911933E+40</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="13"/>
+        <v>6.2227590972007864E+40</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="13"/>
+        <v>1.1200966374961408E+41</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="7"/>
+        <v>1.2062579173035367E+41</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="7"/>
+        <v>6.7014328739085386E+40</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="7"/>
+        <v>1.4360213301232574E+40</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="7"/>
+        <v>4.9517976900801987E+38</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="3"/>
+        <v>4.0628912147572498E+41</v>
+      </c>
+      <c r="AI58">
+        <f>4^A58</f>
+        <v>8.3076749736557242E+34</v>
+      </c>
+      <c r="AJ58">
+        <f>2^A58</f>
+        <v>2.8823037615171174E+17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="14"/>
+        <v>32509</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="8"/>
+        <v>1711</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="15"/>
+        <v>1365378</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="15"/>
+        <v>675862109.99999976</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="15"/>
+        <v>232834496895.00009</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="15"/>
+        <v>59372796708225</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="15"/>
+        <v>1.1637068154812094E+16</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="15"/>
+        <v>1.7970958107645555E+18</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="15"/>
+        <v>2.223906065821136E+20</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="15"/>
+        <v>2.2313190860405399E+22</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="15"/>
+        <v>1.8296816505532419E+24</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="15"/>
+        <v>1.2325400936908659E+26</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="13"/>
+        <v>6.8405975199843072E+27</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="13"/>
+        <v>3.1308888649158935E+29</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="13"/>
+        <v>1.1807923719111372E+31</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="13"/>
+        <v>3.6604563529245261E+32</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="13"/>
+        <v>9.288407995545994E+33</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="13"/>
+        <v>1.9177830626097892E+35</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="13"/>
+        <v>3.196305104349647E+36</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="13"/>
+        <v>4.2561325863182142E+37</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="13"/>
+        <v>4.4689392156341249E+38</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="13"/>
+        <v>3.6389933613020743E+39</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="13"/>
+        <v>2.2495595324412818E+40</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="13"/>
+        <v>1.0269728300275416E+41</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="13"/>
+        <v>3.3376616975895124E+41</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="13"/>
+        <v>7.3428557346969247E+41</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="7"/>
+        <v>1.0167031017272668E+42</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="7"/>
+        <v>7.9076907912120753E+41</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="7"/>
+        <v>2.8241752825757392E+41</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="7"/>
+        <v>2.9215606371473171E+40</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="3"/>
+        <v>3.3164817833920528E+42</v>
+      </c>
+      <c r="AI59">
+        <f>4^A59</f>
+        <v>3.3230699894622897E+35</v>
+      </c>
+      <c r="AJ59">
+        <f>2^A59</f>
+        <v>5.7646075230342349E+17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="14"/>
+        <v>34220</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="8"/>
+        <v>1770</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="15"/>
+        <v>1462905</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="15"/>
+        <v>750957900.00000024</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="15"/>
+        <v>268655188725.00006</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="15"/>
+        <v>71247356049870</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="15"/>
+        <v>1.4546335193515132E+16</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="15"/>
+        <v>2.3440380140407229E+18</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="15"/>
+        <v>3.0325991806651846E+20</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="15"/>
+        <v>3.1875986943436283E+22</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="15"/>
+        <v>2.7445224758298647E+24</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="15"/>
+        <v>1.9461159374066303E+26</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="13"/>
+        <v>1.1400995866640512E+28</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="13"/>
+        <v>5.5250979969104033E+29</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="13"/>
+        <v>2.2139856973333849E+31</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="13"/>
+        <v>7.3209127058490521E+32</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="13"/>
+        <v>1.9903731419027133E+34</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="13"/>
+        <v>4.4256532214072054E+35</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="13"/>
+        <v>7.9907627608741166E+36</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="13"/>
+        <v>1.1607634326322401E+38</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="13"/>
+        <v>1.3406817646902376E+39</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="13"/>
+        <v>1.2129977871006914E+40</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="13"/>
+        <v>8.4358482466548063E+40</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="13"/>
+        <v>4.4013121286894641E+41</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="13"/>
+        <v>1.6688308487947563E+42</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="13"/>
+        <v>4.4057134408181551E+42</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="7"/>
+        <v>7.6252732629545012E+42</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="7"/>
+        <v>7.9076907912120768E+42</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="7"/>
+        <v>4.236262923863609E+42</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="7"/>
+        <v>8.7646819114419519E+41</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="7"/>
+        <v>2.9215606371473157E+40</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" ref="AG60" si="16">IF($A60&lt;2*AG$1,0,COMBIN($A60,AG$1*2))*FACTDOUBLE(AG$1*2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="3"/>
+        <v>2.7287539950459836E+43</v>
+      </c>
+      <c r="AI60">
+        <f>4^A60</f>
+        <v>1.3292279957849159E+36</v>
+      </c>
+      <c r="AJ60">
+        <f>2^A60</f>
+        <v>1.152921504606847E+18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36">
+      <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B62" t="s">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C62" t="s">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E62" t="s">
         <v>5</v>
       </c>
     </row>
